--- a/server/src/resource/warehouse.xlsx
+++ b/server/src/resource/warehouse.xlsx
@@ -1,25 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenvantung/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E64994F9-AD71-A043-A3DB-6DD3F3F7CAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3B9970-A09C-B246-BE2D-3827B3FF3417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14040" xr2:uid="{0E279656-CAAC-E04F-8E1A-75CC66FC5660}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="setting" sheetId="1" r:id="rId1"/>
+    <sheet name="form" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,26 +26,142 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Gasket tiêu chuẩn</t>
+  </si>
+  <si>
+    <t>PN10_RF</t>
+  </si>
+  <si>
+    <t>DN10</t>
+  </si>
+  <si>
+    <t>BG1005 Non Asbestos</t>
+  </si>
+  <si>
+    <t>JIS</t>
+  </si>
+  <si>
+    <t>3T</t>
+  </si>
+  <si>
+    <t>FORM NHẬP KHO</t>
+  </si>
+  <si>
+    <t>lưu ý: Khi thêm hàng mới hãy copy 2 hàng đã có sẵn rồi parse vào row đang trống</t>
+  </si>
+  <si>
+    <t>Thông tin sản phẩm</t>
+  </si>
+  <si>
+    <t>Thông số kĩ thuật</t>
+  </si>
+  <si>
+    <t>Loại sản phẩm</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm</t>
+  </si>
+  <si>
+    <t>Độ dày</t>
+  </si>
+  <si>
+    <t>Giá / m2</t>
+  </si>
+  <si>
+    <t>Hệ tiêu chuẩn</t>
+  </si>
+  <si>
+    <t>Tiêu chuẩn</t>
+  </si>
+  <si>
+    <t>Kích thước</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>WN</t>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Số lỗ</t>
+  </si>
+  <si>
+    <t>Đường kính lỗ</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,12 +169,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,13 +517,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FB0BFA-B45A-F548-9515-0E959AD3F0B9}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A38:A234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="38" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D585DAEA-A4B8-6C44-8025-998E84658F75}">
+  <dimension ref="A1:R39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3" t="e">
+        <f>VLOOKUP(G8,setting!W:AA,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I8" s="3" t="e">
+        <f>VLOOKUP(G8,setting!W:AA,3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3" t="e">
+        <f>VLOOKUP(G8,setting!W:AA,4)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q8" s="3" t="e">
+        <f>VLOOKUP(G8,setting!W:AA,5)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:R3"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:Q6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>